--- a/optaplanner-examples/data/rocktour/unsolved/47shows.xlsx
+++ b/optaplanner-examples/data/rocktour/unsolved/47shows.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Shows" r:id="rId5" sheetId="3"/>
     <sheet name="Driving time" r:id="rId6" sheetId="4"/>
     <sheet name="Stops" r:id="rId7" sheetId="5"/>
+    <sheet name="Score view" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="456">
   <si>
     <t>Tour name</t>
   </si>
@@ -57,34 +58,70 @@
     <t>Constraint</t>
   </si>
   <si>
-    <t>Weight</t>
+    <t>Score weight</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Minimize missed shows</t>
-  </si>
-  <si>
-    <t>Set this to 1 to prioritize visiting all shows (over the other constraints).</t>
-  </si>
-  <si>
-    <t>Maximize revenue opportunity</t>
+    <t>Required show</t>
+  </si>
+  <si>
+    <t>1000hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per required show that isn't assigned.</t>
+  </si>
+  <si>
+    <t>Unassigned show</t>
+  </si>
+  <si>
+    <t>1hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per show that isn't assigned.</t>
+  </si>
+  <si>
+    <t>Revenue opportunity</t>
+  </si>
+  <si>
+    <t>0hard/1medium/0soft</t>
   </si>
   <si>
     <t>Reward per revenue opportunity.</t>
   </si>
   <si>
-    <t>Minimize driving time cost</t>
-  </si>
-  <si>
-    <t>Driving time cost per second.</t>
-  </si>
-  <si>
-    <t>Visit sooner than later</t>
-  </si>
-  <si>
-    <t>Cost per day for each day that a visit is later in the schedule.</t>
+    <t>Driving time to show per second</t>
+  </si>
+  <si>
+    <t>Driving time cost per second, excluding after the last show.</t>
+  </si>
+  <si>
+    <t>Driving time to bus arrival per second</t>
+  </si>
+  <si>
+    <t>0hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Driving time cost per second from the last show to the bus arrival location.</t>
+  </si>
+  <si>
+    <t>Delay show cost per day</t>
+  </si>
+  <si>
+    <t>0hard/30medium/0soft</t>
+  </si>
+  <si>
+    <t>Cost per day for each day that a show is assigned later in the schedule.</t>
+  </si>
+  <si>
+    <t>Shorten driving time per millisecond squared</t>
+  </si>
+  <si>
+    <t>0hard/0medium/1soft</t>
+  </si>
+  <si>
+    <t>Avoid long driving times: Penalty per millisecond of continuous driving time squared.</t>
   </si>
   <si>
     <t/>
@@ -156,9 +193,6 @@
     <t>Duration (in days)</t>
   </si>
   <si>
-    <t>Revenue opportunity</t>
-  </si>
-  <si>
     <t>Required</t>
   </si>
   <si>
@@ -1324,6 +1358,33 @@
   </si>
   <si>
     <t>Total revenue opportunity loss</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>-47init/-3000hard</t>
+  </si>
+  <si>
+    <t>Constraint match</t>
+  </si>
+  <si>
+    <t>Match score</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>Unassigned variables</t>
+  </si>
+  <si>
+    <t>-3000hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>-1000hard</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1406,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1372,7 +1433,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="A40000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FCAF3E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1388,7 +1459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1408,7 +1479,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1435,9 +1512,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="8.0" state="frozen" topLeftCell="B9" activePane="bottomRight"/>
@@ -1446,8 +1527,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.4140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="86.96875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1530,44 +1611,77 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0.0</v>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>1.0</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>1.0</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>30.0</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" state="frozen" topLeftCell="B1" activePane="topRight"/>
@@ -1596,27 +1710,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>32.377716</v>
@@ -1625,15 +1739,15 @@
         <v>-86.300568</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>32.377716</v>
@@ -1642,7 +1756,7 @@
         <v>-86.300568</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1767,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:KY50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1976,54 +2090,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2053,7 +2167,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -2086,7 +2200,7 @@
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
@@ -2118,7 +2232,7 @@
       <c r="CQ2" s="2"/>
       <c r="CR2" s="2"/>
       <c r="CS2" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="CT2" s="2"/>
       <c r="CU2" s="2"/>
@@ -2151,7 +2265,7 @@
       <c r="DV2" s="2"/>
       <c r="DW2" s="2"/>
       <c r="DX2" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="DY2" s="2"/>
       <c r="DZ2" s="2"/>
@@ -2183,7 +2297,7 @@
       <c r="EZ2" s="2"/>
       <c r="FA2" s="2"/>
       <c r="FB2" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="FC2" s="2"/>
       <c r="FD2" s="2"/>
@@ -2216,7 +2330,7 @@
       <c r="GE2" s="2"/>
       <c r="GF2" s="2"/>
       <c r="GG2" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="GH2" s="2"/>
       <c r="GI2" s="2"/>
@@ -2249,7 +2363,7 @@
       <c r="HJ2" s="2"/>
       <c r="HK2" s="2"/>
       <c r="HL2" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="HM2" s="2"/>
       <c r="HN2" s="2"/>
@@ -2281,7 +2395,7 @@
       <c r="IN2" s="2"/>
       <c r="IO2" s="2"/>
       <c r="IP2" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="IQ2" s="2"/>
       <c r="IR2" s="2"/>
@@ -2314,7 +2428,7 @@
       <c r="JS2" s="2"/>
       <c r="JT2" s="2"/>
       <c r="JU2" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="JV2" s="2"/>
       <c r="JW2" s="2"/>
@@ -2348,942 +2462,942 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BO3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CS3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CS3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CU3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="DB3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DX3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DY3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DZ3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="EA3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="EB3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="EC3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="EE3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="EF3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="EG3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="EH3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="EK3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="EL3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="EM3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="EN3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="EO3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="EP3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="EQ3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="DX3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DZ3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="EA3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="EB3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="EF3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="EH3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="EI3" s="1" t="s">
+      <c r="ER3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="ES3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="ET3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="EU3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="EV3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EW3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="EX3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="EY3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EZ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="FA3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="FB3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="FC3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="FD3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="FE3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="FF3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="FG3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="FH3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="FI3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="FJ3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="FK3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="FL3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="FM3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="FN3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="FO3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="FP3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="EX3" s="1" t="s">
+      <c r="FQ3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="EY3" s="1" t="s">
+      <c r="FR3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="EZ3" s="1" t="s">
+      <c r="FS3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="FA3" s="1" t="s">
+      <c r="FT3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="FB3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="FC3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="FD3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="FE3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="FF3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="FG3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="FH3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="FI3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="FJ3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="FK3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="FL3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="FM3" s="1" t="s">
+      <c r="FU3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="FV3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="FW3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="FX3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="FY3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="FZ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="GA3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="GB3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="GC3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="GD3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="GE3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="GF3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="GG3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="FN3" s="1" t="s">
+      <c r="GH3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="FO3" s="1" t="s">
+      <c r="GI3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="FP3" s="1" t="s">
+      <c r="GJ3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="FQ3" s="1" t="s">
+      <c r="GK3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="FR3" s="1" t="s">
+      <c r="GL3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="FS3" s="1" t="s">
+      <c r="GM3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="FT3" s="1" t="s">
+      <c r="GN3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="FU3" s="1" t="s">
+      <c r="GO3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="FV3" s="1" t="s">
+      <c r="GP3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="FW3" s="1" t="s">
+      <c r="GQ3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="FX3" s="1" t="s">
+      <c r="GR3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="FY3" s="1" t="s">
+      <c r="GS3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="FZ3" s="1" t="s">
+      <c r="GT3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="GA3" s="1" t="s">
+      <c r="GU3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="GB3" s="1" t="s">
+      <c r="GV3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="GC3" s="1" t="s">
+      <c r="GW3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="GD3" s="1" t="s">
+      <c r="GX3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="GE3" s="1" t="s">
+      <c r="GY3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="GF3" s="1" t="s">
+      <c r="GZ3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="GG3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="GH3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="GI3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="GJ3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="GK3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="GL3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="GM3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="GN3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="GO3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="GP3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="GQ3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="GR3" s="1" t="s">
+      <c r="HA3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="HB3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="HC3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="HD3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="HE3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="HF3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="HG3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="HH3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="HI3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="HJ3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="HK3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="HL3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="GS3" s="1" t="s">
+      <c r="HM3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="GT3" s="1" t="s">
+      <c r="HN3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="GU3" s="1" t="s">
+      <c r="HO3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="GV3" s="1" t="s">
+      <c r="HP3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="GW3" s="1" t="s">
+      <c r="HQ3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="GX3" s="1" t="s">
+      <c r="HR3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="GY3" s="1" t="s">
+      <c r="HS3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="GZ3" s="1" t="s">
+      <c r="HT3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="HA3" s="1" t="s">
+      <c r="HU3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="HB3" s="1" t="s">
+      <c r="HV3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="HC3" s="1" t="s">
+      <c r="HW3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="HD3" s="1" t="s">
+      <c r="HX3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="HE3" s="1" t="s">
+      <c r="HY3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="HF3" s="1" t="s">
+      <c r="HZ3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="HG3" s="1" t="s">
+      <c r="IA3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="HH3" s="1" t="s">
+      <c r="IB3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="HI3" s="1" t="s">
+      <c r="IC3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="HJ3" s="1" t="s">
+      <c r="ID3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="HK3" s="1" t="s">
+      <c r="IE3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="HL3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="HM3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="HN3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="HO3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="HP3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="HQ3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HR3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="HS3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="HT3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="HU3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="HV3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="HW3" s="1" t="s">
+      <c r="IF3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="IG3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="IH3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="II3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="IJ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="IK3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="IL3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="IM3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="IN3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="IO3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="IP3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="HX3" s="1" t="s">
+      <c r="IQ3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="HY3" s="1" t="s">
+      <c r="IR3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="HZ3" s="1" t="s">
+      <c r="IS3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="IA3" s="1" t="s">
+      <c r="IT3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="IB3" s="1" t="s">
+      <c r="IU3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="IC3" s="1" t="s">
+      <c r="IV3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="ID3" s="1" t="s">
+      <c r="IW3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="IE3" s="1" t="s">
+      <c r="IX3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="IF3" s="1" t="s">
+      <c r="IY3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="IG3" s="1" t="s">
+      <c r="IZ3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="IH3" s="1" t="s">
+      <c r="JA3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="II3" s="1" t="s">
+      <c r="JB3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="IJ3" s="1" t="s">
+      <c r="JC3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="IK3" s="1" t="s">
+      <c r="JD3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="IL3" s="1" t="s">
+      <c r="JE3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="IM3" s="1" t="s">
+      <c r="JF3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="IN3" s="1" t="s">
+      <c r="JG3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="IO3" s="1" t="s">
+      <c r="JH3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="IP3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="IQ3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="IR3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="IS3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="IT3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="IU3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="IV3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="IW3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="IX3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="IY3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="IZ3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="JA3" s="1" t="s">
+      <c r="JI3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="JJ3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="JK3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="JL3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="JM3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="JN3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="JO3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="JP3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="JQ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="JR3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="JS3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="JT3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="JU3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="JB3" s="1" t="s">
+      <c r="JV3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="JC3" s="1" t="s">
+      <c r="JW3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="JD3" s="1" t="s">
+      <c r="JX3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="JE3" s="1" t="s">
+      <c r="JY3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="JF3" s="1" t="s">
+      <c r="JZ3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="JG3" s="1" t="s">
+      <c r="KA3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="JH3" s="1" t="s">
+      <c r="KB3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="JI3" s="1" t="s">
+      <c r="KC3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="JJ3" s="1" t="s">
+      <c r="KD3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="JK3" s="1" t="s">
+      <c r="KE3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="JL3" s="1" t="s">
+      <c r="KF3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="JM3" s="1" t="s">
+      <c r="KG3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="JN3" s="1" t="s">
+      <c r="KH3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="JO3" s="1" t="s">
+      <c r="KI3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="JP3" s="1" t="s">
+      <c r="KJ3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="JQ3" s="1" t="s">
+      <c r="KK3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="JR3" s="1" t="s">
+      <c r="KL3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="JS3" s="1" t="s">
+      <c r="KM3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="JT3" s="1" t="s">
+      <c r="KN3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="JU3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="JV3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="JW3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="JX3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="JY3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="JZ3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="KA3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="KB3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="KC3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="KD3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="KE3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="KF3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="KG3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="KH3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="KI3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="KJ3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="KK3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="KL3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="KM3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="KN3" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="KO3" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="KP3" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="KQ3" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="KR3" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="KS3" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="KT3" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="KU3" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="KV3" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="KW3" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="KX3" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>33.448143</v>
@@ -3606,10 +3720,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>34.746613</v>
@@ -3932,10 +4046,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>38.576668</v>
@@ -4258,10 +4372,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>39.739227</v>
@@ -4584,10 +4698,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>41.764046</v>
@@ -4910,10 +5024,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>39.157307</v>
@@ -5236,10 +5350,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>30.438118</v>
@@ -5562,10 +5676,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>33.749027</v>
@@ -5888,10 +6002,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>43.617775</v>
@@ -6214,10 +6328,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>39.798363</v>
@@ -6540,10 +6654,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>39.768623</v>
@@ -6866,10 +6980,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>41.591087</v>
@@ -7192,10 +7306,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>39.048191</v>
@@ -7518,10 +7632,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>38.186722</v>
@@ -7844,10 +7958,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>30.457069</v>
@@ -8170,10 +8284,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>44.307167</v>
@@ -8496,10 +8610,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>38.978764</v>
@@ -8822,10 +8936,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>42.358162</v>
@@ -9148,10 +9262,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>42.733635</v>
@@ -9474,10 +9588,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>44.955097</v>
@@ -9800,10 +9914,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>32.303848</v>
@@ -10126,10 +10240,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>38.579201</v>
@@ -10452,10 +10566,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>46.585709</v>
@@ -10778,10 +10892,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>40.808075</v>
@@ -11104,10 +11218,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>39.163914</v>
@@ -11430,10 +11544,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>43.206898</v>
@@ -11756,10 +11870,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>40.220596</v>
@@ -12082,10 +12196,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>35.68224</v>
@@ -12408,10 +12522,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>35.78043</v>
@@ -12734,10 +12848,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>46.82085</v>
@@ -13060,10 +13174,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>42.652843</v>
@@ -13386,10 +13500,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>39.961346</v>
@@ -13712,10 +13826,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>35.492207</v>
@@ -14038,10 +14152,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>44.938461</v>
@@ -14364,10 +14478,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>40.264378</v>
@@ -14690,10 +14804,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>41.830914</v>
@@ -15016,10 +15130,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>34.000343</v>
@@ -15342,10 +15456,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>44.367031</v>
@@ -15668,10 +15782,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>36.16581</v>
@@ -15994,10 +16108,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>30.27467</v>
@@ -16320,10 +16434,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>40.777477</v>
@@ -16646,10 +16760,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>44.262436</v>
@@ -16972,10 +17086,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>37.538857</v>
@@ -17298,10 +17412,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>47.035805</v>
@@ -17624,10 +17738,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>38.336246</v>
@@ -17950,10 +18064,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>43.074684</v>
@@ -18276,10 +18390,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>41.140259</v>
@@ -18621,7 +18735,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="3.0" state="frozen" topLeftCell="C4" activePane="bottomRight"/>
@@ -18684,15 +18798,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>30.27467</v>
@@ -18841,10 +18955,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>-97.740349</v>
@@ -26301,7 +26415,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -26325,42 +26439,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -26368,7 +26482,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -26376,7 +26490,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -26384,18 +26498,18 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -26403,7 +26517,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -26411,7 +26525,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -26419,7 +26533,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -26427,7 +26541,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -26435,7 +26549,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -26443,18 +26557,18 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -26462,7 +26576,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -26470,7 +26584,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -26478,7 +26592,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -26486,7 +26600,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -26494,7 +26608,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -26502,18 +26616,18 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -26521,7 +26635,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -26529,7 +26643,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -26537,7 +26651,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -26545,7 +26659,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -26553,7 +26667,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -26561,18 +26675,18 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -26580,7 +26694,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -26588,7 +26702,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -26596,7 +26710,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -26604,7 +26718,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -26612,7 +26726,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -26620,18 +26734,18 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -26639,7 +26753,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -26647,7 +26761,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -26655,7 +26769,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -26663,7 +26777,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -26671,7 +26785,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -26679,18 +26793,18 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -26698,7 +26812,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -26706,7 +26820,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -26714,7 +26828,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -26722,7 +26836,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -26730,7 +26844,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -26738,18 +26852,18 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -26757,7 +26871,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -26765,7 +26879,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -26773,7 +26887,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -26781,7 +26895,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -26789,7 +26903,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -26797,18 +26911,18 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -26816,7 +26930,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -26824,7 +26938,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -26832,7 +26946,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -26840,7 +26954,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -26848,7 +26962,7 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -26856,18 +26970,18 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -26875,7 +26989,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -26883,7 +26997,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -26891,7 +27005,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -26899,7 +27013,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -26907,7 +27021,7 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -26915,18 +27029,18 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -26934,7 +27048,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -26942,7 +27056,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -26950,7 +27064,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -26958,7 +27072,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -26966,7 +27080,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -26974,18 +27088,18 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -26993,7 +27107,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -27001,7 +27115,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -27009,7 +27123,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -27017,7 +27131,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -27025,7 +27139,7 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -27033,18 +27147,18 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -27052,7 +27166,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -27060,7 +27174,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -27068,7 +27182,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -27076,7 +27190,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -27084,7 +27198,7 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -27092,18 +27206,18 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -27111,7 +27225,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -27119,7 +27233,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -27127,7 +27241,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -27135,7 +27249,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -27143,7 +27257,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -27151,18 +27265,18 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -27170,7 +27284,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -27178,7 +27292,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -27186,7 +27300,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -27194,7 +27308,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -27202,7 +27316,7 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -27210,18 +27324,18 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -27229,7 +27343,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -27237,7 +27351,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -27245,7 +27359,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -27253,7 +27367,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -27261,7 +27375,7 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -27269,18 +27383,18 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -27288,7 +27402,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -27296,7 +27410,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -27304,7 +27418,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -27312,7 +27426,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -27320,7 +27434,7 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -27328,18 +27442,18 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -27347,7 +27461,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -27355,7 +27469,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -27363,7 +27477,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -27371,7 +27485,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -27379,7 +27493,7 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -27387,18 +27501,18 @@
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -27406,7 +27520,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -27414,7 +27528,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -27422,7 +27536,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -27430,7 +27544,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -27438,7 +27552,7 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -27446,18 +27560,18 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -27465,7 +27579,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -27473,7 +27587,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -27481,7 +27595,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -27489,7 +27603,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -27497,7 +27611,7 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -27505,18 +27619,18 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -27524,7 +27638,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -27532,7 +27646,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -27540,7 +27654,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -27548,7 +27662,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -27556,7 +27670,7 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -27564,18 +27678,18 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -27583,7 +27697,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -27591,7 +27705,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -27599,7 +27713,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -27607,7 +27721,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -27615,7 +27729,7 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -27623,18 +27737,18 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -27642,7 +27756,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -27650,7 +27764,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -27658,7 +27772,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -27666,7 +27780,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -27674,7 +27788,7 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -27682,18 +27796,18 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -27701,7 +27815,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -27709,7 +27823,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -27717,7 +27831,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -27725,7 +27839,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -27733,7 +27847,7 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -27741,18 +27855,18 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -27760,7 +27874,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -27768,7 +27882,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -27776,7 +27890,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -27784,7 +27898,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -27792,7 +27906,7 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -27800,18 +27914,18 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -27819,7 +27933,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -27827,7 +27941,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -27835,7 +27949,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -27843,7 +27957,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -27851,7 +27965,7 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -27859,18 +27973,18 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -27878,7 +27992,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -27886,7 +28000,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -27894,7 +28008,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -27902,7 +28016,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -27910,7 +28024,7 @@
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -27918,18 +28032,18 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -27937,7 +28051,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -27945,7 +28059,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -27953,7 +28067,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -27961,7 +28075,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -27969,7 +28083,7 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -27977,18 +28091,18 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -27996,7 +28110,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -28004,7 +28118,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -28012,7 +28126,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -28020,7 +28134,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -28028,7 +28142,7 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -28036,18 +28150,18 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -28055,7 +28169,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -28063,7 +28177,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -28071,7 +28185,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -28079,7 +28193,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -28087,7 +28201,7 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -28095,18 +28209,18 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -28114,7 +28228,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -28122,7 +28236,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -28130,7 +28244,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -28138,7 +28252,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -28146,7 +28260,7 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -28154,18 +28268,18 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -28173,7 +28287,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -28181,7 +28295,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -28189,7 +28303,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -28197,7 +28311,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -28205,7 +28319,7 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -28213,18 +28327,18 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -28232,7 +28346,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -28240,7 +28354,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -28248,7 +28362,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -28256,7 +28370,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -28264,7 +28378,7 @@
     </row>
     <row r="228">
       <c r="A228" s="3" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -28272,18 +28386,18 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -28291,7 +28405,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -28299,7 +28413,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -28307,7 +28421,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -28315,7 +28429,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -28323,7 +28437,7 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -28331,18 +28445,18 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -28350,7 +28464,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -28358,7 +28472,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -28366,7 +28480,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -28374,7 +28488,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -28382,7 +28496,7 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -28390,18 +28504,18 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -28409,7 +28523,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -28417,7 +28531,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -28425,7 +28539,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -28433,7 +28547,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -28441,7 +28555,7 @@
     </row>
     <row r="249">
       <c r="A249" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -28449,18 +28563,18 @@
     </row>
     <row r="250">
       <c r="A250" s="3" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -28468,7 +28582,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -28476,7 +28590,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -28484,7 +28598,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -28492,7 +28606,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -28500,7 +28614,7 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -28508,18 +28622,18 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -28527,7 +28641,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -28535,7 +28649,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -28543,7 +28657,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -28551,7 +28665,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -28559,7 +28673,7 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -28567,18 +28681,18 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -28586,7 +28700,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -28594,7 +28708,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -28602,7 +28716,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -28610,7 +28724,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -28618,7 +28732,7 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -28626,18 +28740,18 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -28645,7 +28759,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -28653,7 +28767,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -28661,7 +28775,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -28669,7 +28783,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -28677,7 +28791,7 @@
     </row>
     <row r="277">
       <c r="A277" s="3" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -28685,18 +28799,18 @@
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -28704,7 +28818,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -28712,7 +28826,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -28720,7 +28834,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -28728,7 +28842,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -28736,7 +28850,7 @@
     </row>
     <row r="284">
       <c r="A284" s="3" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -28744,18 +28858,18 @@
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -28763,7 +28877,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -28771,7 +28885,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -28779,7 +28893,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -28787,7 +28901,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -28795,7 +28909,7 @@
     </row>
     <row r="291">
       <c r="A291" s="3" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -28803,18 +28917,18 @@
     </row>
     <row r="292">
       <c r="A292" s="3" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -28822,7 +28936,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -28830,7 +28944,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -28838,7 +28952,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -28846,7 +28960,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -28854,7 +28968,7 @@
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -28862,18 +28976,18 @@
     </row>
     <row r="299">
       <c r="A299" s="3" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -28881,7 +28995,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -28889,7 +29003,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -28897,7 +29011,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -28905,7 +29019,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -28915,16 +29029,16 @@
     <row r="306"/>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E307" s="2" t="n">
         <v>42.652843</v>
@@ -28947,16 +29061,16 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E308" s="2" t="n">
         <v>38.978764</v>
@@ -28979,16 +29093,16 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E309" s="2" t="n">
         <v>33.749027</v>
@@ -29011,16 +29125,16 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E310" s="2" t="n">
         <v>44.307167</v>
@@ -29043,16 +29157,16 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E311" s="2" t="n">
         <v>30.27467</v>
@@ -29075,16 +29189,16 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E312" s="2" t="n">
         <v>30.457069</v>
@@ -29107,16 +29221,16 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E313" s="2" t="n">
         <v>46.82085</v>
@@ -29139,16 +29253,16 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E314" s="2" t="n">
         <v>43.617775</v>
@@ -29171,16 +29285,16 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E315" s="2" t="n">
         <v>42.358162</v>
@@ -29203,16 +29317,16 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E316" s="2" t="n">
         <v>39.163914</v>
@@ -29235,16 +29349,16 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E317" s="2" t="n">
         <v>38.336246</v>
@@ -29267,16 +29381,16 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E318" s="2" t="n">
         <v>41.140259</v>
@@ -29299,16 +29413,16 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E319" s="2" t="n">
         <v>34.000343</v>
@@ -29331,16 +29445,16 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E320" s="2" t="n">
         <v>39.961346</v>
@@ -29363,16 +29477,16 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E321" s="2" t="n">
         <v>43.206898</v>
@@ -29395,16 +29509,16 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E322" s="2" t="n">
         <v>39.739227</v>
@@ -29427,16 +29541,16 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E323" s="2" t="n">
         <v>41.591087</v>
@@ -29459,16 +29573,16 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E324" s="2" t="n">
         <v>39.157307</v>
@@ -29491,16 +29605,16 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E325" s="2" t="n">
         <v>38.186722</v>
@@ -29523,16 +29637,16 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E326" s="2" t="n">
         <v>40.264378</v>
@@ -29555,16 +29669,16 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E327" s="2" t="n">
         <v>41.764046</v>
@@ -29587,16 +29701,16 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E328" s="2" t="n">
         <v>46.585709</v>
@@ -29619,16 +29733,16 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E329" s="2" t="n">
         <v>39.768623</v>
@@ -29651,16 +29765,16 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E330" s="2" t="n">
         <v>32.303848</v>
@@ -29683,16 +29797,16 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E331" s="2" t="n">
         <v>38.579201</v>
@@ -29715,16 +29829,16 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E332" s="2" t="n">
         <v>42.733635</v>
@@ -29747,16 +29861,16 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E333" s="2" t="n">
         <v>40.808075</v>
@@ -29779,16 +29893,16 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E334" s="2" t="n">
         <v>34.746613</v>
@@ -29811,16 +29925,16 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E335" s="2" t="n">
         <v>43.074684</v>
@@ -29843,16 +29957,16 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E336" s="2" t="n">
         <v>44.262436</v>
@@ -29875,16 +29989,16 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E337" s="2" t="n">
         <v>36.16581</v>
@@ -29907,16 +30021,16 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E338" s="2" t="n">
         <v>35.492207</v>
@@ -29939,16 +30053,16 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E339" s="2" t="n">
         <v>47.035805</v>
@@ -29971,16 +30085,16 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E340" s="2" t="n">
         <v>33.448143</v>
@@ -30003,16 +30117,16 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E341" s="2" t="n">
         <v>44.367031</v>
@@ -30035,16 +30149,16 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E342" s="2" t="n">
         <v>41.830914</v>
@@ -30067,16 +30181,16 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E343" s="2" t="n">
         <v>35.78043</v>
@@ -30099,16 +30213,16 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E344" s="2" t="n">
         <v>37.538857</v>
@@ -30131,16 +30245,16 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E345" s="2" t="n">
         <v>38.576668</v>
@@ -30163,16 +30277,16 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E346" s="2" t="n">
         <v>44.938461</v>
@@ -30195,16 +30309,16 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E347" s="2" t="n">
         <v>40.777477</v>
@@ -30227,16 +30341,16 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E348" s="2" t="n">
         <v>35.68224</v>
@@ -30259,16 +30373,16 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E349" s="2" t="n">
         <v>39.798363</v>
@@ -30291,16 +30405,16 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E350" s="2" t="n">
         <v>44.955097</v>
@@ -30323,16 +30437,16 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E351" s="2" t="n">
         <v>30.438118</v>
@@ -30355,16 +30469,16 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E352" s="2" t="n">
         <v>39.048191</v>
@@ -30387,16 +30501,16 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E353" s="2" t="n">
         <v>40.220596</v>
@@ -30419,7 +30533,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -30435,4 +30549,97 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="20.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="n">
+        <v>-47.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>